--- a/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,12</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-17,88; 0,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-28,98; -13,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; -9,73</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-26,49; -10,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,03; -7,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; -14,48</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-23,29%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-59,08%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-45,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-46,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,18%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-42,94; 3,06</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-70,34; -41,98</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-59,53; -26,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-57,84; -30,65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,57; -20,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,91; -41,05</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,34; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,36; 0,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 2,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -3,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 2,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 1,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; -3,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,23%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,96; 9,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,91; 20,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,19; 1,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; 23,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,88; 6,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,96; -12,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; 9,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; 6,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,15; -10,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,61</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 10,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,13; -6,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,25; 0,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,9; -9,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 4,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,49; -10,35</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,75%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; 39,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,17; 16,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,81; -23,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,69; 15,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,32; 3,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,68; -36,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,1; 16,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,48; 1,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,18; -37,17</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 3,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,77; -6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,65; -4,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; -0,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,5; -0,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,45; -4,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,24; -0,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,44; -5,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; -6,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,23%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,78; 13,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,15; -22,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,84; -15,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,0; -2,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,25; -2,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,29; -13,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,72; -2,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,19; -17,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,77; -21,34</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 12,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 6,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,15; 0,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 12,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; 5,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,37; 1,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 9,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,12; 2,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,64; -1,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,97%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 56,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,29; 27,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,65; 1,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,02; 56,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,28; 23,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,81; 6,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,28; 37,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,57; 11,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,5; -4,38</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,72</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,44; 5,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,38; 2,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,99; 2,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,58; 8,99</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; 3,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; -3,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 5,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 0,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,26; -2,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,35%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,22%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,17; 23,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,3; 10,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,12; 9,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,03; 40,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,67; 18,05</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,68; -14,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,45; 22,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,28; 4,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,06; -9,15</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,55</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 2,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 8,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; -3,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,86; 1,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 7,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; -7,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 0,7</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 6,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; -7,82</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,4%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,61%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,07; 7,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 26,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,57; -13,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,71; 5,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; 25,74</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,51; -27,91</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,14; 2,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 21,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,43; -25,96</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,7</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,21</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,08</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 6,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,78; 0,8</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,15; -16,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,14; 3,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; -3,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,42; -18,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 3,28</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; -2,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,5; -18,85</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,33%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,39%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,84%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,66%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,33; 23,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,2; 3,24</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,55; -57,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; 10,74</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,53; -8,95</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,95; -58,31</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 10,57</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,09; -8,11</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,97; -61,01</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,68</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,01</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 0,66</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; -1,81</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,93; -10,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; -0,78</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -3,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -12,45</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; -0,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -3,47</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; -12,18</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,81%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,44%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,79%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,98%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,76%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,0; 2,01</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,71; -5,84</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,47; -35,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -2,31</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,94; -10,32</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,16; -40,41</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -2,34</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,54; -11,17</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; -39,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-17,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,25</t>
+          <t>-21,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-14,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,06</t>
+          <t>-18,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-16,15</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-20,12</t>
+          <t>-20,17</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,33; -8,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,98; -13,53</t>
+          <t>-29,3; -13,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,19; -5,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; -10,84</t>
+          <t>-25,94; -9,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; -9,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -14,48</t>
+          <t>-26,44; -14,45</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-59,08%</t>
+          <t>-59,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-46,46%</t>
+          <t>-45,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-52,18%</t>
+          <t>-52,3%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,77; -26,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,34; -41,98</t>
+          <t>-71,37; -41,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,74; -14,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,84; -30,65</t>
+          <t>-57,06; -26,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,53; -29,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,91; -41,05</t>
+          <t>-62,1; -40,64</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-8,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-7,47</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 0,53</t>
+          <t>-13,19; 1,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,6; -3,4</t>
+          <t>-14,61; -3,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -3,33</t>
+          <t>-12,1; -2,81</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,35%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,26%</t>
+          <t>-29,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-24,23%</t>
+          <t>-23,18%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 1,9</t>
+          <t>-35,48; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,96; -12,32</t>
+          <t>-42,87; -12,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,15; -10,43</t>
+          <t>-35,45; -9,66</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-15,45</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-14,58</t>
+          <t>-14,51</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -6,08</t>
+          <t>-21,12; -6,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -9,6</t>
+          <t>-21,81; -9,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,49; -10,35</t>
+          <t>-19,41; -10,24</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,18%</t>
+          <t>-42,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-51,97%</t>
+          <t>-52,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-47,75%</t>
+          <t>-47,52%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; -23,33</t>
+          <t>-59,42; -22,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,68; -36,57</t>
+          <t>-63,68; -36,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,18; -37,17</t>
+          <t>-57,1; -36,84</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,41</t>
+          <t>-11,16</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,49</t>
+          <t>-5,12; 9,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,65; -4,65</t>
+          <t>-20,47; -2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -0,79</t>
+          <t>-13,53; 0,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -4,03</t>
+          <t>-20,47; 6,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,24; -0,8</t>
+          <t>-7,55; 3,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -6,23</t>
+          <t>-18,05; -0,21</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,83%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-39,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>-21,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-38,19%</t>
+          <t>-32,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,99%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-39,23%</t>
+          <t>-35,28%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 13,04</t>
+          <t>-14,96; 36,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -15,55</t>
+          <t>-58,98; -10,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -2,61</t>
+          <t>-37,7; 2,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,29; -13,44</t>
+          <t>-60,45; 25,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,72; -2,11</t>
+          <t>-22,85; 10,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,77; -21,34</t>
+          <t>-54,83; 0,63</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-6,22</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 0,26</t>
+          <t>-16,98; 0,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 1,51</t>
+          <t>-13,93; 1,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -1,21</t>
+          <t>-12,4; -0,93</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>-18,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-22,97%</t>
+          <t>-21,99%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 1,67</t>
+          <t>-48,26; 2,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 6,56</t>
+          <t>-41,12; 8,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-39,5; -4,38</t>
+          <t>-38,8; -3,46</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>-7,69</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 2,31</t>
+          <t>-14,02; 2,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,65; -3,32</t>
+          <t>-17,77; -3,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -2,14</t>
+          <t>-13,35; -2,17</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-20,35%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-37,19%</t>
+          <t>-37,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-28,22%</t>
+          <t>-28,08%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 9,12</t>
+          <t>-42,15; 9,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,68; -14,44</t>
+          <t>-56,03; -15,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,06; -9,15</t>
+          <t>-43,02; -9,15</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-15,66</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-12,11</t>
+          <t>-13,4</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -3,96</t>
+          <t>-16,41; -3,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -7,88</t>
+          <t>-25,65; -8,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -7,82</t>
+          <t>-22,09; -8,62</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-30,38%</t>
+          <t>-30,18%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-43,43%</t>
+          <t>-50,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-37,61%</t>
+          <t>-41,61%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -13,5</t>
+          <t>-45,37; -12,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-66,51; -27,91</t>
+          <t>-79,08; -29,5</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-54,43; -25,96</t>
+          <t>-64,59; -28,15</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-20,7</t>
+          <t>-22,97</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-23,21</t>
+          <t>-23,07</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-22,08</t>
+          <t>-23,44</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-26,15; -16,44</t>
+          <t>-29,85; -17,82</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -18,92</t>
+          <t>-27,31; -18,78</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -18,85</t>
+          <t>-28,56; -20,26</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-67,39%</t>
+          <t>-74,78%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-65,84%</t>
+          <t>-65,44%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-66,66%</t>
+          <t>-70,76%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-77,55; -57,86</t>
+          <t>-89,0; -61,99</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -58,31</t>
+          <t>-71,64; -57,93</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-72,97; -61,01</t>
+          <t>-82,49; -63,54</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-13,26</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-14,68</t>
+          <t>-14,62</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-14,34</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -10,79</t>
+          <t>-18,19; -11,24</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -12,45</t>
+          <t>-18,08; -11,47</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -12,18</t>
+          <t>-17,02; -12,06</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-41,44%</t>
+          <t>-43,91%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-45,79%</t>
+          <t>-45,59%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>-44,78%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-47,47; -35,0</t>
+          <t>-58,38; -36,65</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-52,16; -40,41</t>
+          <t>-54,75; -36,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-48,22; -39,05</t>
+          <t>-52,5; -38,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C03-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,33; -8,85</t>
+          <t>-26,07; -9,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 0,92</t>
+          <t>-17,5; 0,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,3; -13,62</t>
+          <t>-28,92; -13,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,19; -5,49</t>
+          <t>-23,22; -5,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,31; -9,73</t>
+          <t>-27,94; -10,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -9,5</t>
+          <t>-26,67; -9,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -9,72</t>
+          <t>-22,3; -9,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -7,42</t>
+          <t>-20,34; -7,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-26,44; -14,45</t>
+          <t>-25,7; -14,01</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,77; -26,68</t>
+          <t>-63,08; -29,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 3,06</t>
+          <t>-43,13; 1,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,37; -41,97</t>
+          <t>-72,08; -43,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,74; -14,5</t>
+          <t>-51,01; -13,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,53; -26,99</t>
+          <t>-59,51; -28,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,06; -26,82</t>
+          <t>-57,35; -26,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,53; -29,03</t>
+          <t>-53,27; -28,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -20,45</t>
+          <t>-47,87; -21,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,1; -40,64</t>
+          <t>-61,44; -39,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 2,97</t>
+          <t>-10,3; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 6,15</t>
+          <t>-7,46; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 1,13</t>
+          <t>-13,24; 0,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,63</t>
+          <t>-6,17; 6,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 2,01</t>
+          <t>-10,62; 2,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -3,41</t>
+          <t>-14,27; -3,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,86</t>
+          <t>-6,37; 2,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,95</t>
+          <t>-7,01; 1,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -2,81</t>
+          <t>-12,03; -2,7</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 9,89</t>
+          <t>-27,71; 10,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 20,7</t>
+          <t>-19,96; 21,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 3,75</t>
+          <t>-35,46; 1,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 23,65</t>
+          <t>-18,5; 22,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 6,96</t>
+          <t>-31,88; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,87; -12,14</t>
+          <t>-41,25; -11,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 9,55</t>
+          <t>-18,72; 9,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 6,66</t>
+          <t>-20,41; 6,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,45; -9,66</t>
+          <t>-35,17; -9,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 10,28</t>
+          <t>-7,06; 9,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 4,4</t>
+          <t>-11,44; 3,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -6,18</t>
+          <t>-20,32; -5,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 3,8</t>
+          <t>-10,59; 4,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 0,9</t>
+          <t>-12,93; 1,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,81; -9,61</t>
+          <t>-22,38; -9,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 4,51</t>
+          <t>-6,32; 4,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 0,49</t>
+          <t>-9,82; 1,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,41; -10,24</t>
+          <t>-19,35; -9,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 39,14</t>
+          <t>-19,59; 36,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 16,94</t>
+          <t>-31,68; 13,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,42; -22,97</t>
+          <t>-58,33; -20,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 15,67</t>
+          <t>-31,42; 15,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 3,83</t>
+          <t>-37,75; 5,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-63,68; -36,83</t>
+          <t>-65,14; -38,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 16,4</t>
+          <t>-18,39; 17,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 1,6</t>
+          <t>-29,43; 4,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -36,84</t>
+          <t>-57,67; -34,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 9,79</t>
+          <t>-5,74; 10,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-19,77; -6,01</t>
+          <t>-20,47; -5,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,47; -2,98</t>
+          <t>-20,61; -2,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 0,39</t>
+          <t>-13,14; 0,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -0,64</t>
+          <t>-14,86; -0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 6,21</t>
+          <t>-19,8; 8,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 3,05</t>
+          <t>-7,48; 2,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -5,23</t>
+          <t>-14,75; -5,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -0,21</t>
+          <t>-17,77; -0,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 36,36</t>
+          <t>-16,46; 36,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,15; -22,12</t>
+          <t>-57,81; -20,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; -10,03</t>
+          <t>-58,36; -7,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 2,2</t>
+          <t>-37,81; 1,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,25; -2,06</t>
+          <t>-41,58; -0,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 25,29</t>
+          <t>-59,83; 29,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 10,28</t>
+          <t>-21,64; 10,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,19; -17,95</t>
+          <t>-44,0; -18,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 0,63</t>
+          <t>-54,87; -2,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 12,79</t>
+          <t>-6,63; 12,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 6,88</t>
+          <t>-14,22; 6,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 0,47</t>
+          <t>-15,73; 1,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 12,55</t>
+          <t>-6,87; 11,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,48</t>
+          <t>-12,66; 7,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 1,8</t>
+          <t>-14,52; 2,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 9,41</t>
+          <t>-4,68; 8,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 2,88</t>
+          <t>-11,0; 2,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -0,93</t>
+          <t>-12,14; 0,14</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 56,41</t>
+          <t>-20,77; 51,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 27,38</t>
+          <t>-44,12; 26,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 2,54</t>
+          <t>-47,6; 4,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 56,84</t>
+          <t>-22,06; 51,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 23,97</t>
+          <t>-39,87; 32,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 8,41</t>
+          <t>-41,34; 10,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 37,96</t>
+          <t>-14,89; 34,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 11,03</t>
+          <t>-35,05; 10,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,8; -3,46</t>
+          <t>-37,6; 1,24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 5,62</t>
+          <t>-10,81; 5,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 2,38</t>
+          <t>-15,11; 1,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 2,36</t>
+          <t>-14,04; 2,55</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 8,99</t>
+          <t>-7,71; 8,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,54</t>
+          <t>-12,93; 3,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -3,45</t>
+          <t>-16,64; -2,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 5,36</t>
+          <t>-6,22; 5,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 0,9</t>
+          <t>-11,14; 0,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -2,17</t>
+          <t>-12,93; -2,59</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 23,49</t>
+          <t>-33,73; 21,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 10,15</t>
+          <t>-44,36; 8,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 9,77</t>
+          <t>-40,97; 11,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 40,99</t>
+          <t>-24,59; 37,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 18,05</t>
+          <t>-41,9; 16,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -15,06</t>
+          <t>-54,44; -9,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 22,76</t>
+          <t>-20,05; 21,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 4,12</t>
+          <t>-37,54; -0,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -9,15</t>
+          <t>-43,32; -10,79</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 2,17</t>
+          <t>-9,64; 2,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 8,29</t>
+          <t>-4,53; 8,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -3,77</t>
+          <t>-15,97; -4,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,45</t>
+          <t>-8,96; 1,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,33</t>
+          <t>-4,15; 7,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -8,74</t>
+          <t>-26,22; -8,83</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,7</t>
+          <t>-7,47; 0,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,33</t>
+          <t>-2,05; 6,81</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -8,62</t>
+          <t>-22,49; -8,68</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 7,27</t>
+          <t>-26,41; 8,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 26,75</t>
+          <t>-12,32; 28,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,37; -12,77</t>
+          <t>-44,26; -14,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 5,41</t>
+          <t>-27,11; 6,39</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 25,74</t>
+          <t>-12,2; 27,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-79,08; -29,5</t>
+          <t>-78,12; -28,76</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 2,34</t>
+          <t>-21,89; 2,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 21,11</t>
+          <t>-6,2; 22,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-64,59; -28,15</t>
+          <t>-67,01; -28,33</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,59</t>
+          <t>-3,8; 6,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 0,8</t>
+          <t>-9,88; 1,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-29,85; -17,82</t>
+          <t>-31,04; -18,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 3,48</t>
+          <t>-6,97; 4,05</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -3,0</t>
+          <t>-12,82; -2,27</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-27,31; -18,78</t>
+          <t>-27,38; -18,57</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,28</t>
+          <t>-4,49; 3,22</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -2,48</t>
+          <t>-10,31; -2,8</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -20,26</t>
+          <t>-28,47; -19,93</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 23,5</t>
+          <t>-11,61; 25,04</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 3,24</t>
+          <t>-28,94; 4,21</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-89,0; -61,99</t>
+          <t>-89,21; -62,22</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 10,74</t>
+          <t>-18,28; 12,66</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-35,53; -8,95</t>
+          <t>-34,05; -7,12</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-71,64; -57,93</t>
+          <t>-71,59; -57,93</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 10,57</t>
+          <t>-12,52; 10,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -8,11</t>
+          <t>-29,07; -8,86</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -63,54</t>
+          <t>-83,68; -63,78</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,66</t>
+          <t>-4,73; 0,59</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -1,81</t>
+          <t>-6,93; -1,73</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -11,24</t>
+          <t>-18,39; -11,29</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,78</t>
+          <t>-5,67; -0,84</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -3,13</t>
+          <t>-8,03; -3,15</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -11,47</t>
+          <t>-18,2; -11,53</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,76</t>
+          <t>-4,39; -0,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -3,47</t>
+          <t>-7,08; -3,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -12,06</t>
+          <t>-16,97; -12,26</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 2,01</t>
+          <t>-14,02; 1,98</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -5,84</t>
+          <t>-21,12; -5,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-58,38; -36,65</t>
+          <t>-56,54; -36,05</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -2,31</t>
+          <t>-17,08; -2,93</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -10,32</t>
+          <t>-24,13; -10,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-54,75; -36,5</t>
+          <t>-55,51; -36,97</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -2,34</t>
+          <t>-13,33; -2,36</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -11,17</t>
+          <t>-21,32; -11,16</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -38,45</t>
+          <t>-52,18; -38,94</t>
         </is>
       </c>
     </row>
